--- a/public/downloads/stocklist_example_data.xlsx
+++ b/public/downloads/stocklist_example_data.xlsx
@@ -86,9 +86,6 @@
     <t>Batch Number</t>
   </si>
   <si>
-    <t>Expiry Date (dd/mm/yyyy)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current Stringent Regulatory Authority (SRA) Approvals </t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>IU</t>
+  </si>
+  <si>
+    <t>Expiry Date (dd-mm-yyyy)</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,6 +302,7 @@
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -659,7 +660,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -685,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -694,10 +695,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -706,22 +707,22 @@
         <v>18</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -738,23 +739,35 @@
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6">
+        <v>2178251</v>
+      </c>
+      <c r="I2" s="19">
+        <v>42715</v>
+      </c>
       <c r="J2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="6">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6">
         <v>35</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="6">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -770,23 +783,35 @@
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H3" s="6">
+        <v>324324</v>
+      </c>
+      <c r="I3" s="19">
+        <v>42715</v>
+      </c>
       <c r="J3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="K3" s="6">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6">
+        <v>432</v>
+      </c>
+      <c r="M3" s="6">
+        <v>4</v>
+      </c>
+      <c r="N3" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -802,23 +827,35 @@
         <v>1</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6">
+        <v>453543</v>
+      </c>
+      <c r="I4" s="19">
+        <v>42715</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6">
+        <v>32</v>
+      </c>
+      <c r="L4" s="6">
         <v>35</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="3"/>
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -834,23 +871,35 @@
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="H5" s="6">
+        <v>454345</v>
+      </c>
+      <c r="I5" s="19">
+        <v>42715</v>
+      </c>
       <c r="J5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="K5" s="6">
+        <v>43</v>
+      </c>
+      <c r="L5" s="6">
+        <v>432</v>
+      </c>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -866,23 +915,35 @@
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5434545</v>
+      </c>
+      <c r="I6" s="19">
+        <v>42715</v>
+      </c>
       <c r="J6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="6">
+        <v>45</v>
+      </c>
+      <c r="L6" s="6">
         <v>35</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="3"/>
+      <c r="M6" s="6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -898,23 +959,35 @@
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H7" s="6">
+        <v>43543543</v>
+      </c>
+      <c r="I7" s="19">
+        <v>42715</v>
+      </c>
       <c r="J7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="K7" s="6">
+        <v>23</v>
+      </c>
+      <c r="L7" s="6">
+        <v>432</v>
+      </c>
+      <c r="M7" s="6">
+        <v>4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -924,29 +997,41 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16">
         <v>10000</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="H8" s="6">
+        <v>453434</v>
+      </c>
+      <c r="I8" s="19">
+        <v>42715</v>
+      </c>
       <c r="J8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="6">
+        <v>45</v>
+      </c>
+      <c r="L8" s="6">
         <v>35</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -962,23 +1047,35 @@
         <v>50</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6">
+        <v>342546</v>
+      </c>
+      <c r="I9" s="19">
+        <v>42715</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
+      <c r="K9" s="6">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6">
+        <v>432</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4</v>
+      </c>
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G12" s="10"/>

--- a/public/downloads/stocklist_example_data.xlsx
+++ b/public/downloads/stocklist_example_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\chemogit\ChemoFinder-Toolchain\public\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/public/downloads/stocklist_example_data.xlsx
+++ b/public/downloads/stocklist_example_data.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -77,75 +80,24 @@
   </si>
   <si>
     <t>21</t>
-  </si>
-  <si>
-    <t>Aspirne</t>
-  </si>
-  <si>
-    <t>Tablets</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>aspirne</t>
-  </si>
-  <si>
-    <t>73827</t>
-  </si>
-  <si>
-    <t>2017-03-23</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Bleomycin sulfate</t>
-  </si>
-  <si>
-    <t>vial</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>BLEO 15K</t>
-  </si>
-  <si>
-    <t>Amneal Pharma Australia Pty Ltd</t>
-  </si>
-  <si>
-    <t>2736</t>
-  </si>
-  <si>
-    <t>2014-07-22</t>
-  </si>
-  <si>
-    <t>ARTG</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Bleomycin test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -518,11 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="66"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -534,7 +488,7 @@
     <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,134 +576,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>15000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>32</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>207</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>15000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>32</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/downloads/stocklist_example_data.xlsx
+++ b/public/downloads/stocklist_example_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>64745</t>
-  </si>
-  <si>
-    <t>2017-03-10</t>
   </si>
   <si>
     <t>EMS</t>
@@ -86,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +96,14 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,11 +131,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,111 +484,112 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
-    <col min="9" max="10" width="30" customWidth="1"/>
-    <col min="11" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="10" width="30" style="1" customWidth="1"/>
+    <col min="11" max="13" width="20" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4">
+        <v>42804</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="3">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
-      <c r="L2">
-        <v>24</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>